--- a/documents/Unit_tests.xlsx
+++ b/documents/Unit_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simeon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAC37790-8FB5-42E2-B2E3-8E698EBA19A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FCAF74-DCBC-43BB-8FA3-E097BBA437F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{458BC130-9D90-47C7-8BCE-737B970934DD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="40">
   <si>
     <t>Test case 1</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Test the function: isClicked</t>
-  </si>
-  <si>
     <t>Created on</t>
   </si>
   <si>
@@ -69,12 +66,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Testing isClicked function</t>
-  </si>
-  <si>
-    <t>Click input</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
@@ -84,61 +75,76 @@
     <t>MT_002</t>
   </si>
   <si>
-    <t>Test the function: IfHorseRun</t>
-  </si>
-  <si>
-    <t>Testing IfHorseRun function</t>
-  </si>
-  <si>
-    <t>Draw the horse</t>
-  </si>
-  <si>
     <t>Test case 3</t>
   </si>
   <si>
     <t>MT_003</t>
   </si>
   <si>
-    <t>Test the function: findDistance</t>
-  </si>
-  <si>
-    <t>Testing findDistance function</t>
-  </si>
-  <si>
     <t>Test case 4</t>
   </si>
   <si>
     <t>MT_004</t>
   </si>
   <si>
-    <t>Test the function: UnLoadTextures</t>
-  </si>
-  <si>
-    <t>Testing UnLoadTextures function</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>It should unload the textures</t>
-  </si>
-  <si>
     <t>Test case 5</t>
   </si>
   <si>
     <t>MT_005</t>
   </si>
   <si>
-    <t>Test the function: DrawDotsAnimation</t>
-  </si>
-  <si>
-    <t>Testing DrawDotsAnimation function</t>
-  </si>
-  <si>
-    <t>Draw the dots in the right order</t>
-  </si>
-  <si>
     <t>Simeon Syarov</t>
+  </si>
+  <si>
+    <t>Test the function: setPos</t>
+  </si>
+  <si>
+    <t>Testing setPos function</t>
+  </si>
+  <si>
+    <t>Set enemy position</t>
+  </si>
+  <si>
+    <t>move the enemy</t>
+  </si>
+  <si>
+    <t>Testing move function</t>
+  </si>
+  <si>
+    <t>Test the function: draw</t>
+  </si>
+  <si>
+    <t>Testing findDistance draw</t>
+  </si>
+  <si>
+    <t>draw the enemy</t>
+  </si>
+  <si>
+    <t>Test the function: takeDamage</t>
+  </si>
+  <si>
+    <t>Testing takeDamage function</t>
+  </si>
+  <si>
+    <t>It should update the health bar</t>
+  </si>
+  <si>
+    <t>Test the function: getRotation</t>
+  </si>
+  <si>
+    <t>Testing getRotation function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should update the health bar </t>
+  </si>
+  <si>
+    <t>get rotation of the enemy</t>
+  </si>
+  <si>
+    <t>Test the function: move</t>
+  </si>
+  <si>
+    <t>200, 24</t>
   </si>
 </sst>
 </file>
@@ -614,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0599683B-A5E9-44AE-92F5-D0FF41B6F4F8}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,7 +654,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -666,10 +672,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="D5" s="2">
         <v>44906</v>
@@ -677,22 +683,22 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -700,19 +706,19 @@
         <v>1</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="15" t="b">
-        <v>1</v>
+        <v>39</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -725,7 +731,7 @@
     </row>
     <row r="11" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A11" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -738,13 +744,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -762,10 +768,10 @@
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="2">
         <v>44906</v>
@@ -773,22 +779,22 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -796,26 +802,26 @@
         <v>2</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="1" t="b">
-        <v>1</v>
+        <v>27</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1065</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
-      <c r="C19" s="3" t="b">
-        <v>1</v>
+      <c r="C19" s="3">
+        <v>300</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
@@ -823,7 +829,7 @@
     </row>
     <row r="21" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A21" s="8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -836,13 +842,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -860,10 +866,10 @@
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D25" s="2">
         <v>44906</v>
@@ -871,22 +877,22 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="E27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -894,26 +900,26 @@
         <v>3</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C28" s="6">
-        <v>200</v>
-      </c>
-      <c r="D28" s="15">
-        <v>100</v>
-      </c>
-      <c r="E28" s="15">
-        <v>100</v>
+        <v>163</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="14"/>
       <c r="B29" s="15"/>
       <c r="C29" s="7">
-        <v>100</v>
+        <v>225</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
@@ -921,7 +927,7 @@
     </row>
     <row r="31" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A31" s="8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -934,13 +940,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -958,10 +964,10 @@
         <v>6</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D35" s="2">
         <v>44906</v>
@@ -969,22 +975,22 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="E37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="F37" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -992,19 +998,19 @@
         <v>4</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="C38" s="12">
+        <v>163.22499999999999</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -1017,7 +1023,7 @@
     </row>
     <row r="41" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A41" s="8" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -1030,13 +1036,13 @@
         <v>1</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1057,7 +1063,7 @@
         <v>34</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D45" s="2">
         <v>44906</v>
@@ -1065,22 +1071,22 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="E47" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="F47" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1094,13 +1100,13 @@
         <v>900</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1115,22 +1121,23 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="A1:F1"/>
@@ -1140,23 +1147,22 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/documents/Unit_tests.xlsx
+++ b/documents/Unit_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simeon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FCAF74-DCBC-43BB-8FA3-E097BBA437F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF8AA4C-8185-4818-9BC1-9A3D742CCDC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{458BC130-9D90-47C7-8BCE-737B970934DD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="42">
   <si>
     <t>Test case 1</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Test the function: draw</t>
   </si>
   <si>
-    <t>Testing findDistance draw</t>
-  </si>
-  <si>
     <t>draw the enemy</t>
   </si>
   <si>
@@ -145,6 +142,15 @@
   </si>
   <si>
     <t>200, 24</t>
+  </si>
+  <si>
+    <t>Testing draw function</t>
+  </si>
+  <si>
+    <t>1065, 100</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
 </sst>
 </file>
@@ -251,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -259,20 +265,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -620,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0599683B-A5E9-44AE-92F5-D0FF41B6F4F8}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:F31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,47 +631,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="13"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2">
@@ -682,95 +679,95 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="A8" s="11">
         <v>1</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="17"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="11" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="13"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="10"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="2">
@@ -778,97 +775,95 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
+      <c r="A18" s="11">
         <v>2</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="1">
-        <v>1065</v>
-      </c>
-      <c r="D18" s="15" t="s">
+      <c r="C18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="3">
-        <v>300</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="17"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="14"/>
     </row>
     <row r="21" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="13"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="2">
@@ -876,97 +871,95 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="14">
+      <c r="A28" s="11">
         <v>3</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="6">
-        <v>163</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="17" t="s">
+      <c r="E28" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="7">
-        <v>225</v>
-      </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="17"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="31" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="13"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="10"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="2">
@@ -974,95 +967,95 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="14">
+      <c r="A38" s="11">
         <v>4</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="9">
+        <v>20</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="12">
-        <v>163.22499999999999</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="17"/>
+      <c r="A39" s="11"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="14"/>
     </row>
     <row r="41" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="13"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="10"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D45" s="2">
@@ -1070,57 +1063,91 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="E47" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="14">
+      <c r="A48" s="11">
         <v>5</v>
       </c>
-      <c r="B48" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="1">
-        <v>900</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F48" s="17" t="s">
+      <c r="B48" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="14"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="3">
-        <v>600</v>
-      </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="17"/>
+      <c r="A49" s="11"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="45">
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="A31:F31"/>
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
@@ -1130,39 +1157,6 @@
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="F38:F39"/>
     <mergeCell ref="C38:C39"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
